--- a/natmiOut/OldD2/LR-pairs_lrc2p/Adam15-Itgb1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Adam15-Itgb1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>71.5940519578547</v>
+        <v>71.5940935</v>
       </c>
       <c r="H2">
-        <v>71.5940519578547</v>
+        <v>143.188187</v>
       </c>
       <c r="I2">
-        <v>0.3964419714929158</v>
+        <v>0.3871779756686048</v>
       </c>
       <c r="J2">
-        <v>0.3964419714929158</v>
+        <v>0.2984720157128297</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N2">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O2">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P2">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q2">
-        <v>11782.3862649788</v>
+        <v>11782.76049215179</v>
       </c>
       <c r="R2">
-        <v>11782.3862649788</v>
+        <v>47131.04196860717</v>
       </c>
       <c r="S2">
-        <v>0.09392864528699194</v>
+        <v>0.08985492778697632</v>
       </c>
       <c r="T2">
-        <v>0.09392864528699194</v>
+        <v>0.05389204834347685</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>71.5940519578547</v>
+        <v>71.5940935</v>
       </c>
       <c r="H3">
-        <v>71.5940519578547</v>
+        <v>143.188187</v>
       </c>
       <c r="I3">
-        <v>0.3964419714929158</v>
+        <v>0.3871779756686048</v>
       </c>
       <c r="J3">
-        <v>0.3964419714929158</v>
+        <v>0.2984720157128297</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P3">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q3">
-        <v>7973.521344217958</v>
+        <v>8502.824403296667</v>
       </c>
       <c r="R3">
-        <v>7973.521344217958</v>
+        <v>51016.94641978</v>
       </c>
       <c r="S3">
-        <v>0.06356454806234067</v>
+        <v>0.06484224755756153</v>
       </c>
       <c r="T3">
-        <v>0.06356454806234067</v>
+        <v>0.05833539060355732</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>71.5940519578547</v>
+        <v>71.5940935</v>
       </c>
       <c r="H4">
-        <v>71.5940519578547</v>
+        <v>143.188187</v>
       </c>
       <c r="I4">
-        <v>0.3964419714929158</v>
+        <v>0.3871779756686048</v>
       </c>
       <c r="J4">
-        <v>0.3964419714929158</v>
+        <v>0.2984720157128297</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N4">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O4">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P4">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q4">
-        <v>6015.450445329788</v>
+        <v>6051.98883319598</v>
       </c>
       <c r="R4">
-        <v>6015.450445329788</v>
+        <v>36311.93299917588</v>
       </c>
       <c r="S4">
-        <v>0.04795489626751562</v>
+        <v>0.04615225947575056</v>
       </c>
       <c r="T4">
-        <v>0.04795489626751562</v>
+        <v>0.04152092478541294</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>71.5940519578547</v>
+        <v>71.5940935</v>
       </c>
       <c r="H5">
-        <v>71.5940519578547</v>
+        <v>143.188187</v>
       </c>
       <c r="I5">
-        <v>0.3964419714929158</v>
+        <v>0.3871779756686048</v>
       </c>
       <c r="J5">
-        <v>0.3964419714929158</v>
+        <v>0.2984720157128297</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N5">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O5">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P5">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q5">
-        <v>5656.023003017478</v>
+        <v>5701.445871061439</v>
       </c>
       <c r="R5">
-        <v>5656.023003017478</v>
+        <v>34208.67522636864</v>
       </c>
       <c r="S5">
-        <v>0.04508955710988579</v>
+        <v>0.04347903085756622</v>
       </c>
       <c r="T5">
-        <v>0.04508955710988579</v>
+        <v>0.03911595207875349</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>71.5940519578547</v>
+        <v>71.5940935</v>
       </c>
       <c r="H6">
-        <v>71.5940519578547</v>
+        <v>143.188187</v>
       </c>
       <c r="I6">
-        <v>0.3964419714929158</v>
+        <v>0.3871779756686048</v>
       </c>
       <c r="J6">
-        <v>0.3964419714929158</v>
+        <v>0.2984720157128297</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N6">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O6">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P6">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q6">
-        <v>8310.262182328868</v>
+        <v>8715.384116758052</v>
       </c>
       <c r="R6">
-        <v>8310.262182328868</v>
+        <v>52292.30470054832</v>
       </c>
       <c r="S6">
-        <v>0.06624903064721213</v>
+        <v>0.06646322064924196</v>
       </c>
       <c r="T6">
-        <v>0.06624903064721213</v>
+        <v>0.05979370061011733</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>71.5940519578547</v>
+        <v>71.5940935</v>
       </c>
       <c r="H7">
-        <v>71.5940519578547</v>
+        <v>143.188187</v>
       </c>
       <c r="I7">
-        <v>0.3964419714929158</v>
+        <v>0.3871779756686048</v>
       </c>
       <c r="J7">
-        <v>0.3964419714929158</v>
+        <v>0.2984720157128297</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N7">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O7">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P7">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q7">
-        <v>9991.940589503743</v>
+        <v>10016.60537003573</v>
       </c>
       <c r="R7">
-        <v>9991.940589503743</v>
+        <v>40066.42148014293</v>
       </c>
       <c r="S7">
-        <v>0.07965529411896961</v>
+        <v>0.07638628934150833</v>
       </c>
       <c r="T7">
-        <v>0.07965529411896961</v>
+        <v>0.0458139992915118</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.59075281456083</v>
+        <v>7.187397666666667</v>
       </c>
       <c r="H8">
-        <v>6.59075281456083</v>
+        <v>21.562193</v>
       </c>
       <c r="I8">
-        <v>0.03649536474014751</v>
+        <v>0.0388691572567401</v>
       </c>
       <c r="J8">
-        <v>0.03649536474014751</v>
+        <v>0.0449458250902993</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N8">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O8">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P8">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q8">
-        <v>1084.654287815208</v>
+        <v>1182.882289978069</v>
       </c>
       <c r="R8">
-        <v>1084.654287815208</v>
+        <v>7097.293739868413</v>
       </c>
       <c r="S8">
-        <v>0.008646814454049205</v>
+        <v>0.009020619812926543</v>
       </c>
       <c r="T8">
-        <v>0.008646814454049205</v>
+        <v>0.008115409321771622</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.59075281456083</v>
+        <v>7.187397666666667</v>
       </c>
       <c r="H9">
-        <v>6.59075281456083</v>
+        <v>21.562193</v>
       </c>
       <c r="I9">
-        <v>0.03649536474014751</v>
+        <v>0.0388691572567401</v>
       </c>
       <c r="J9">
-        <v>0.03649536474014751</v>
+        <v>0.0449458250902993</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P9">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q9">
-        <v>734.0205897593403</v>
+        <v>853.6064539504346</v>
       </c>
       <c r="R9">
-        <v>734.0205897593403</v>
+        <v>7682.458085553912</v>
       </c>
       <c r="S9">
-        <v>0.005851578624084239</v>
+        <v>0.006509573569733655</v>
       </c>
       <c r="T9">
-        <v>0.005851578624084239</v>
+        <v>0.008784516217977462</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.59075281456083</v>
+        <v>7.187397666666667</v>
       </c>
       <c r="H10">
-        <v>6.59075281456083</v>
+        <v>21.562193</v>
       </c>
       <c r="I10">
-        <v>0.03649536474014751</v>
+        <v>0.0388691572567401</v>
       </c>
       <c r="J10">
-        <v>0.03649536474014751</v>
+        <v>0.0449458250902993</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N10">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O10">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P10">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q10">
-        <v>553.7659326328829</v>
+        <v>607.564790500567</v>
       </c>
       <c r="R10">
-        <v>553.7659326328829</v>
+        <v>5468.083114505103</v>
       </c>
       <c r="S10">
-        <v>0.004414596728414753</v>
+        <v>0.004633268274671348</v>
       </c>
       <c r="T10">
-        <v>0.004414596728414753</v>
+        <v>0.006252486413293</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.59075281456083</v>
+        <v>7.187397666666667</v>
       </c>
       <c r="H11">
-        <v>6.59075281456083</v>
+        <v>21.562193</v>
       </c>
       <c r="I11">
-        <v>0.03649536474014751</v>
+        <v>0.0388691572567401</v>
       </c>
       <c r="J11">
-        <v>0.03649536474014751</v>
+        <v>0.0449458250902993</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N11">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O11">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P11">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q11">
-        <v>520.6780243183102</v>
+        <v>572.3734563423627</v>
       </c>
       <c r="R11">
-        <v>520.6780243183102</v>
+        <v>5151.361107081265</v>
       </c>
       <c r="S11">
-        <v>0.004150821434219405</v>
+        <v>0.004364900366181736</v>
       </c>
       <c r="T11">
-        <v>0.004150821434219405</v>
+        <v>0.005890330241424413</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.59075281456083</v>
+        <v>7.187397666666667</v>
       </c>
       <c r="H12">
-        <v>6.59075281456083</v>
+        <v>21.562193</v>
       </c>
       <c r="I12">
-        <v>0.03649536474014751</v>
+        <v>0.0388691572567401</v>
       </c>
       <c r="J12">
-        <v>0.03649536474014751</v>
+        <v>0.0449458250902993</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N12">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O12">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P12">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q12">
-        <v>765.0200312752854</v>
+        <v>874.9455213772706</v>
       </c>
       <c r="R12">
-        <v>765.0200312752854</v>
+        <v>7874.509692395435</v>
       </c>
       <c r="S12">
-        <v>0.006098704756326291</v>
+        <v>0.00667230456676588</v>
       </c>
       <c r="T12">
-        <v>0.006098704756326291</v>
+        <v>0.009004117865809473</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.59075281456083</v>
+        <v>7.187397666666667</v>
       </c>
       <c r="H13">
-        <v>6.59075281456083</v>
+        <v>21.562193</v>
       </c>
       <c r="I13">
-        <v>0.03649536474014751</v>
+        <v>0.0388691572567401</v>
       </c>
       <c r="J13">
-        <v>0.03649536474014751</v>
+        <v>0.0449458250902993</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N13">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O13">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P13">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q13">
-        <v>919.8307507719068</v>
+        <v>1005.576333814683</v>
       </c>
       <c r="R13">
-        <v>919.8307507719068</v>
+        <v>6033.458002888097</v>
       </c>
       <c r="S13">
-        <v>0.00733284874305361</v>
+        <v>0.00766849066646094</v>
       </c>
       <c r="T13">
-        <v>0.00733284874305361</v>
+        <v>0.006898965030023328</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>28.8315753209319</v>
+        <v>31.60821133333333</v>
       </c>
       <c r="H14">
-        <v>28.8315753209319</v>
+        <v>94.824634</v>
       </c>
       <c r="I14">
-        <v>0.1596507845121725</v>
+        <v>0.1709359345201494</v>
       </c>
       <c r="J14">
-        <v>0.1596507845121725</v>
+        <v>0.1976594595000447</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N14">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O14">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P14">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q14">
-        <v>4744.874019129744</v>
+        <v>5201.993146627166</v>
       </c>
       <c r="R14">
-        <v>4744.874019129744</v>
+        <v>31211.95887976299</v>
       </c>
       <c r="S14">
-        <v>0.03782591901599853</v>
+        <v>0.03967022149434929</v>
       </c>
       <c r="T14">
-        <v>0.03782591901599853</v>
+        <v>0.03568935305871635</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>28.8315753209319</v>
+        <v>31.60821133333333</v>
       </c>
       <c r="H15">
-        <v>28.8315753209319</v>
+        <v>94.824634</v>
       </c>
       <c r="I15">
-        <v>0.1596507845121725</v>
+        <v>0.1709359345201494</v>
       </c>
       <c r="J15">
-        <v>0.1596507845121725</v>
+        <v>0.1976594595000447</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P15">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q15">
-        <v>3211.009503194583</v>
+        <v>3753.927978285317</v>
       </c>
       <c r="R15">
-        <v>3211.009503194583</v>
+        <v>33785.35180456786</v>
       </c>
       <c r="S15">
-        <v>0.02559802113559947</v>
+        <v>0.02862732613728424</v>
       </c>
       <c r="T15">
-        <v>0.02559802113559947</v>
+        <v>0.03863190238751582</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>28.8315753209319</v>
+        <v>31.60821133333333</v>
       </c>
       <c r="H16">
-        <v>28.8315753209319</v>
+        <v>94.824634</v>
       </c>
       <c r="I16">
-        <v>0.1596507845121725</v>
+        <v>0.1709359345201494</v>
       </c>
       <c r="J16">
-        <v>0.1596507845121725</v>
+        <v>0.1976594595000447</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N16">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O16">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P16">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q16">
-        <v>2422.476558610695</v>
+        <v>2671.903961276246</v>
       </c>
       <c r="R16">
-        <v>2422.476558610695</v>
+        <v>24047.13565148622</v>
       </c>
       <c r="S16">
-        <v>0.01931187250804379</v>
+        <v>0.02037584805819714</v>
       </c>
       <c r="T16">
-        <v>0.01931187250804379</v>
+        <v>0.02749672705974209</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>28.8315753209319</v>
+        <v>31.60821133333333</v>
       </c>
       <c r="H17">
-        <v>28.8315753209319</v>
+        <v>94.824634</v>
       </c>
       <c r="I17">
-        <v>0.1596507845121725</v>
+        <v>0.1709359345201494</v>
       </c>
       <c r="J17">
-        <v>0.1596507845121725</v>
+        <v>0.1976594595000447</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N17">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O17">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P17">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q17">
-        <v>2277.731861362136</v>
+        <v>2517.142087958286</v>
       </c>
       <c r="R17">
-        <v>2277.731861362136</v>
+        <v>22654.27879162457</v>
       </c>
       <c r="S17">
-        <v>0.01815797439103469</v>
+        <v>0.0191956393150571</v>
       </c>
       <c r="T17">
-        <v>0.01815797439103469</v>
+        <v>0.02590406315731436</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>28.8315753209319</v>
+        <v>31.60821133333333</v>
       </c>
       <c r="H18">
-        <v>28.8315753209319</v>
+        <v>94.824634</v>
       </c>
       <c r="I18">
-        <v>0.1596507845121725</v>
+        <v>0.1709359345201494</v>
       </c>
       <c r="J18">
-        <v>0.1596507845121725</v>
+        <v>0.1976594595000447</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N18">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O18">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P18">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q18">
-        <v>3346.618098770983</v>
+        <v>3847.771366972685</v>
       </c>
       <c r="R18">
-        <v>3346.618098770983</v>
+        <v>34629.94230275416</v>
       </c>
       <c r="S18">
-        <v>0.02667908666725862</v>
+        <v>0.02934297260395096</v>
       </c>
       <c r="T18">
-        <v>0.02667908666725862</v>
+        <v>0.03959765043927788</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>28.8315753209319</v>
+        <v>31.60821133333333</v>
       </c>
       <c r="H19">
-        <v>28.8315753209319</v>
+        <v>94.824634</v>
       </c>
       <c r="I19">
-        <v>0.1596507845121725</v>
+        <v>0.1709359345201494</v>
       </c>
       <c r="J19">
-        <v>0.1596507845121725</v>
+        <v>0.1976594595000447</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N19">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O19">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P19">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q19">
-        <v>4023.845275277059</v>
+        <v>4422.249991595898</v>
       </c>
       <c r="R19">
-        <v>4023.845275277059</v>
+        <v>26533.49994957539</v>
       </c>
       <c r="S19">
-        <v>0.03207791079423734</v>
+        <v>0.03372392691131067</v>
       </c>
       <c r="T19">
-        <v>0.03207791079423734</v>
+        <v>0.03033976339747822</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>24.8350712483255</v>
+        <v>25.18468366666667</v>
       </c>
       <c r="H20">
-        <v>24.8350712483255</v>
+        <v>75.554051</v>
       </c>
       <c r="I20">
-        <v>0.1375207065197126</v>
+        <v>0.1361977554742582</v>
       </c>
       <c r="J20">
-        <v>0.1375207065197126</v>
+        <v>0.1574904352775969</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N20">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O20">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P20">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q20">
-        <v>4087.160795680274</v>
+        <v>4144.826496265932</v>
       </c>
       <c r="R20">
-        <v>4087.160795680274</v>
+        <v>24868.95897759559</v>
       </c>
       <c r="S20">
-        <v>0.03258265923172422</v>
+        <v>0.03160830484160227</v>
       </c>
       <c r="T20">
-        <v>0.03258265923172422</v>
+        <v>0.02843644196037984</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>24.8350712483255</v>
+        <v>25.18468366666667</v>
       </c>
       <c r="H21">
-        <v>24.8350712483255</v>
+        <v>75.554051</v>
       </c>
       <c r="I21">
-        <v>0.1375207065197126</v>
+        <v>0.1361977554742582</v>
       </c>
       <c r="J21">
-        <v>0.1375207065197126</v>
+        <v>0.1574904352775969</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P21">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q21">
-        <v>2765.9137214397</v>
+        <v>2991.042031564243</v>
       </c>
       <c r="R21">
-        <v>2765.9137214397</v>
+        <v>26919.37828407818</v>
       </c>
       <c r="S21">
-        <v>0.02204973788779456</v>
+        <v>0.02280958404722139</v>
       </c>
       <c r="T21">
-        <v>0.02204973788779456</v>
+        <v>0.0307809964572433</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>24.8350712483255</v>
+        <v>25.18468366666667</v>
       </c>
       <c r="H22">
-        <v>24.8350712483255</v>
+        <v>75.554051</v>
       </c>
       <c r="I22">
-        <v>0.1375207065197126</v>
+        <v>0.1361977554742582</v>
       </c>
       <c r="J22">
-        <v>0.1375207065197126</v>
+        <v>0.1574904352775969</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N22">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O22">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P22">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q22">
-        <v>2086.683688310874</v>
+        <v>2128.910596769269</v>
       </c>
       <c r="R22">
-        <v>2086.683688310874</v>
+        <v>19160.19537092342</v>
       </c>
       <c r="S22">
-        <v>0.01663494707927544</v>
+        <v>0.01623499926566843</v>
       </c>
       <c r="T22">
-        <v>0.01663494707927544</v>
+        <v>0.02190874914006875</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>24.8350712483255</v>
+        <v>25.18468366666667</v>
       </c>
       <c r="H23">
-        <v>24.8350712483255</v>
+        <v>75.554051</v>
       </c>
       <c r="I23">
-        <v>0.1375207065197126</v>
+        <v>0.1361977554742582</v>
       </c>
       <c r="J23">
-        <v>0.1375207065197126</v>
+        <v>0.1574904352775969</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N23">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O23">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P23">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q23">
-        <v>1962.002853879485</v>
+        <v>2005.599955048039</v>
       </c>
       <c r="R23">
-        <v>1962.002853879485</v>
+        <v>18050.39959543235</v>
       </c>
       <c r="S23">
-        <v>0.01564099716047151</v>
+        <v>0.01529463653703562</v>
       </c>
       <c r="T23">
-        <v>0.01564099716047151</v>
+        <v>0.02063975178533196</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>24.8350712483255</v>
+        <v>25.18468366666667</v>
       </c>
       <c r="H24">
-        <v>24.8350712483255</v>
+        <v>75.554051</v>
       </c>
       <c r="I24">
-        <v>0.1375207065197126</v>
+        <v>0.1361977554742582</v>
       </c>
       <c r="J24">
-        <v>0.1375207065197126</v>
+        <v>0.1574904352775969</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N24">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O24">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P24">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q24">
-        <v>2882.72485976762</v>
+        <v>3065.814249244494</v>
       </c>
       <c r="R24">
-        <v>2882.72485976762</v>
+        <v>27592.32824320045</v>
       </c>
       <c r="S24">
-        <v>0.02298095094861445</v>
+        <v>0.02337979441724514</v>
       </c>
       <c r="T24">
-        <v>0.02298095094861445</v>
+        <v>0.03155048192191676</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>24.8350712483255</v>
+        <v>25.18468366666667</v>
       </c>
       <c r="H25">
-        <v>24.8350712483255</v>
+        <v>75.554051</v>
       </c>
       <c r="I25">
-        <v>0.1375207065197126</v>
+        <v>0.1361977554742582</v>
       </c>
       <c r="J25">
-        <v>0.1375207065197126</v>
+        <v>0.1574904352775969</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N25">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O25">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P25">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q25">
-        <v>3466.077832770799</v>
+        <v>3523.54538378483</v>
       </c>
       <c r="R25">
-        <v>3466.077832770799</v>
+        <v>21141.27230270898</v>
       </c>
       <c r="S25">
-        <v>0.0276314142118324</v>
+        <v>0.02687043636548536</v>
       </c>
       <c r="T25">
-        <v>0.0276314142118324</v>
+        <v>0.02417401401265627</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>45.3336886823533</v>
+        <v>45.93186333333333</v>
       </c>
       <c r="H26">
-        <v>45.3336886823533</v>
+        <v>137.79559</v>
       </c>
       <c r="I26">
-        <v>0.2510289112684657</v>
+        <v>0.2483976679457086</v>
       </c>
       <c r="J26">
-        <v>0.2510289112684657</v>
+        <v>0.2872312888746796</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N26">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O26">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P26">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q26">
-        <v>7460.662111794094</v>
+        <v>7559.340696379031</v>
       </c>
       <c r="R26">
-        <v>7460.662111794094</v>
+        <v>45356.04417827419</v>
       </c>
       <c r="S26">
-        <v>0.05947605768007543</v>
+        <v>0.05764727313626691</v>
       </c>
       <c r="T26">
-        <v>0.05947605768007543</v>
+        <v>0.05186242492055518</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>45.3336886823533</v>
+        <v>45.93186333333333</v>
       </c>
       <c r="H27">
-        <v>45.3336886823533</v>
+        <v>137.79559</v>
       </c>
       <c r="I27">
-        <v>0.2510289112684657</v>
+        <v>0.2483976679457086</v>
       </c>
       <c r="J27">
-        <v>0.2510289112684657</v>
+        <v>0.2872312888746796</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P27">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q27">
-        <v>5048.871022604814</v>
+        <v>5455.066882571173</v>
       </c>
       <c r="R27">
-        <v>5048.871022604814</v>
+        <v>49095.60194314056</v>
       </c>
       <c r="S27">
-        <v>0.0402493692463301</v>
+        <v>0.04160015313330398</v>
       </c>
       <c r="T27">
-        <v>0.0402493692463301</v>
+        <v>0.05613842688082669</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>45.3336886823533</v>
+        <v>45.93186333333333</v>
       </c>
       <c r="H28">
-        <v>45.3336886823533</v>
+        <v>137.79559</v>
       </c>
       <c r="I28">
-        <v>0.2510289112684657</v>
+        <v>0.2483976679457086</v>
       </c>
       <c r="J28">
-        <v>0.2510289112684657</v>
+        <v>0.2872312888746796</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N28">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O28">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P28">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q28">
-        <v>3809.011367777256</v>
+        <v>3882.71029622321</v>
       </c>
       <c r="R28">
-        <v>3809.011367777256</v>
+        <v>34944.39266600889</v>
       </c>
       <c r="S28">
-        <v>0.03036526469357891</v>
+        <v>0.02960941568126305</v>
       </c>
       <c r="T28">
-        <v>0.03036526469357891</v>
+        <v>0.03995720909680629</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>45.3336886823533</v>
+        <v>45.93186333333333</v>
       </c>
       <c r="H29">
-        <v>45.3336886823533</v>
+        <v>137.79559</v>
       </c>
       <c r="I29">
-        <v>0.2510289112684657</v>
+        <v>0.2483976679457086</v>
       </c>
       <c r="J29">
-        <v>0.2510289112684657</v>
+        <v>0.2872312888746796</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N29">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O29">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P29">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q29">
-        <v>3581.420229573867</v>
+        <v>3657.816165407439</v>
       </c>
       <c r="R29">
-        <v>3581.420229573867</v>
+        <v>32920.34548866695</v>
       </c>
       <c r="S29">
-        <v>0.02855091853228309</v>
+        <v>0.0278943807454663</v>
       </c>
       <c r="T29">
-        <v>0.02855091853228309</v>
+        <v>0.03764280984368888</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>45.3336886823533</v>
+        <v>45.93186333333333</v>
       </c>
       <c r="H30">
-        <v>45.3336886823533</v>
+        <v>137.79559</v>
       </c>
       <c r="I30">
-        <v>0.2510289112684657</v>
+        <v>0.2483976679457086</v>
       </c>
       <c r="J30">
-        <v>0.2510289112684657</v>
+        <v>0.2872312888746796</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N30">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O30">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P30">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q30">
-        <v>5262.096896879136</v>
+        <v>5591.436563805853</v>
       </c>
       <c r="R30">
-        <v>5262.096896879136</v>
+        <v>50322.92907425268</v>
       </c>
       <c r="S30">
-        <v>0.04194919617954239</v>
+        <v>0.04264010364980959</v>
       </c>
       <c r="T30">
-        <v>0.04194919617954239</v>
+        <v>0.05754181560979243</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>45.3336886823533</v>
+        <v>45.93186333333333</v>
       </c>
       <c r="H31">
-        <v>45.3336886823533</v>
+        <v>137.79559</v>
       </c>
       <c r="I31">
-        <v>0.2510289112684657</v>
+        <v>0.2483976679457086</v>
       </c>
       <c r="J31">
-        <v>0.2510289112684657</v>
+        <v>0.2872312888746796</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N31">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O31">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P31">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q31">
-        <v>6326.943532736258</v>
+        <v>6426.247284217851</v>
       </c>
       <c r="R31">
-        <v>6326.943532736258</v>
+        <v>38557.48370530711</v>
       </c>
       <c r="S31">
-        <v>0.0504381049366557</v>
+        <v>0.04900634159959882</v>
       </c>
       <c r="T31">
-        <v>0.0504381049366557</v>
+        <v>0.04408860252301017</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>3.40636417076624</v>
+        <v>3.4063695</v>
       </c>
       <c r="H32">
-        <v>3.40636417076624</v>
+        <v>6.812739000000001</v>
       </c>
       <c r="I32">
-        <v>0.01886226146658601</v>
+        <v>0.01842150913453884</v>
       </c>
       <c r="J32">
-        <v>0.01886226146658601</v>
+        <v>0.01420097554454969</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N32">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O32">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P32">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q32">
-        <v>560.5926375389172</v>
+        <v>560.6109946244497</v>
       </c>
       <c r="R32">
-        <v>560.5926375389172</v>
+        <v>2242.443978497799</v>
       </c>
       <c r="S32">
-        <v>0.004469018908198809</v>
+        <v>0.004275200236151585</v>
       </c>
       <c r="T32">
-        <v>0.004469018908198809</v>
+        <v>0.002564125346034936</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>3.40636417076624</v>
+        <v>3.4063695</v>
       </c>
       <c r="H33">
-        <v>3.40636417076624</v>
+        <v>6.812739000000001</v>
       </c>
       <c r="I33">
-        <v>0.01886226146658601</v>
+        <v>0.01842150913453884</v>
       </c>
       <c r="J33">
-        <v>0.01886226146658601</v>
+        <v>0.01420097554454969</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N33">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O33">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P33">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q33">
-        <v>379.3711443762484</v>
+        <v>404.555184587196</v>
       </c>
       <c r="R33">
-        <v>379.3711443762484</v>
+        <v>2427.331107523176</v>
       </c>
       <c r="S33">
-        <v>0.003024329439797138</v>
+        <v>0.003085123975925851</v>
       </c>
       <c r="T33">
-        <v>0.003024329439797138</v>
+        <v>0.002775534762829901</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>3.40636417076624</v>
+        <v>3.4063695</v>
       </c>
       <c r="H34">
-        <v>3.40636417076624</v>
+        <v>6.812739000000001</v>
       </c>
       <c r="I34">
-        <v>0.01886226146658601</v>
+        <v>0.01842150913453884</v>
       </c>
       <c r="J34">
-        <v>0.01886226146658601</v>
+        <v>0.01420097554454969</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N34">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O34">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P34">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q34">
-        <v>286.2083414422967</v>
+        <v>287.9470801001115</v>
       </c>
       <c r="R34">
-        <v>286.2083414422967</v>
+        <v>1727.682480600669</v>
       </c>
       <c r="S34">
-        <v>0.002281639828887424</v>
+        <v>0.002195874566583942</v>
       </c>
       <c r="T34">
-        <v>0.002281639828887424</v>
+        <v>0.001975520673375447</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>3.40636417076624</v>
+        <v>3.4063695</v>
       </c>
       <c r="H35">
-        <v>3.40636417076624</v>
+        <v>6.812739000000001</v>
       </c>
       <c r="I35">
-        <v>0.01886226146658601</v>
+        <v>0.01842150913453884</v>
       </c>
       <c r="J35">
-        <v>0.01886226146658601</v>
+        <v>0.01420097554454969</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N35">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O35">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P35">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q35">
-        <v>269.1071894890097</v>
+        <v>271.2686252684325</v>
       </c>
       <c r="R35">
-        <v>269.1071894890097</v>
+        <v>1627.611751610595</v>
       </c>
       <c r="S35">
-        <v>0.002145310226403276</v>
+        <v>0.002068685241510495</v>
       </c>
       <c r="T35">
-        <v>0.002145310226403276</v>
+        <v>0.001861094674304767</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>3.40636417076624</v>
+        <v>3.4063695</v>
       </c>
       <c r="H36">
-        <v>3.40636417076624</v>
+        <v>6.812739000000001</v>
       </c>
       <c r="I36">
-        <v>0.01886226146658601</v>
+        <v>0.01842150913453884</v>
       </c>
       <c r="J36">
-        <v>0.01886226146658601</v>
+        <v>0.01420097554454969</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N36">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O36">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P36">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q36">
-        <v>395.3928933121801</v>
+        <v>414.668545752438</v>
       </c>
       <c r="R36">
-        <v>395.3928933121801</v>
+        <v>2488.011274514628</v>
       </c>
       <c r="S36">
-        <v>0.003152054090715557</v>
+        <v>0.003162248121646348</v>
       </c>
       <c r="T36">
-        <v>0.003152054090715557</v>
+        <v>0.002844919574970735</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>3.40636417076624</v>
+        <v>3.4063695</v>
       </c>
       <c r="H37">
-        <v>3.40636417076624</v>
+        <v>6.812739000000001</v>
       </c>
       <c r="I37">
-        <v>0.01886226146658601</v>
+        <v>0.01842150913453884</v>
       </c>
       <c r="J37">
-        <v>0.01886226146658601</v>
+        <v>0.01420097554454969</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N37">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O37">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P37">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q37">
-        <v>475.4052535055084</v>
+        <v>476.5792449907328</v>
       </c>
       <c r="R37">
-        <v>475.4052535055084</v>
+        <v>1906.316979962931</v>
       </c>
       <c r="S37">
-        <v>0.003789908972583808</v>
+        <v>0.003634376992720623</v>
       </c>
       <c r="T37">
-        <v>0.003789908972583808</v>
+        <v>0.002179780513033906</v>
       </c>
     </row>
   </sheetData>
